--- a/eleve_data.xlsx
+++ b/eleve_data.xlsx
@@ -14,713 +14,745 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="241">
+  <si>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Specialite</t>
+  </si>
+  <si>
+    <t>Sexe</t>
+  </si>
   <si>
     <t>Marie</t>
   </si>
   <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Hilda</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Leila</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Pauline</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
+    <t>Elva</t>
+  </si>
+  <si>
+    <t>Landon</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Alvin</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Cordelia</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Hester</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mable</t>
+  </si>
+  <si>
+    <t>Callie</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>Chester</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Leroy</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Mabel</t>
+  </si>
+  <si>
+    <t>Lela</t>
+  </si>
+  <si>
+    <t>Elijah</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Elmer</t>
+  </si>
+  <si>
+    <t>Gertrude</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Delia</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>Cecelia</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Glen</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Birdie</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t>Dustin</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>Agnes</t>
+  </si>
+  <si>
+    <t>Bessie</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Myrtie</t>
+  </si>
+  <si>
+    <t>Milton</t>
+  </si>
+  <si>
+    <t>Bess</t>
+  </si>
+  <si>
     <t>Oliver</t>
   </si>
   <si>
+    <t>Ferrante</t>
+  </si>
+  <si>
+    <t>Baronti</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Savage</t>
+  </si>
+  <si>
+    <t>Fabbrini</t>
+  </si>
+  <si>
+    <t>Meucci</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Metcalfe</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Arrighi</t>
+  </si>
+  <si>
+    <t>Carpenter</t>
+  </si>
+  <si>
+    <t>Tomlinson</t>
+  </si>
+  <si>
+    <t>Ridolfi</t>
+  </si>
+  <si>
+    <t>Cianferoni</t>
+  </si>
+  <si>
+    <t>Rolland</t>
+  </si>
+  <si>
+    <t>Paoli</t>
+  </si>
+  <si>
+    <t>Braun</t>
+  </si>
+  <si>
+    <t>Benoît</t>
+  </si>
+  <si>
+    <t>Mazzini</t>
+  </si>
+  <si>
+    <t>Baldwin</t>
+  </si>
+  <si>
+    <t>Giannini</t>
+  </si>
+  <si>
+    <t>Naylor</t>
+  </si>
+  <si>
+    <t>Carli</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Cecchi</t>
+  </si>
+  <si>
+    <t>Dumas</t>
+  </si>
+  <si>
+    <t>van der Veen</t>
+  </si>
+  <si>
+    <t>Petrucci</t>
+  </si>
+  <si>
+    <t>Robson</t>
+  </si>
+  <si>
+    <t>Giannetti</t>
+  </si>
+  <si>
+    <t>Dondoli</t>
+  </si>
+  <si>
+    <t>van Beek</t>
+  </si>
+  <si>
+    <t>Uchida</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Poirier</t>
+  </si>
+  <si>
+    <t>Hammond</t>
+  </si>
+  <si>
+    <t>Powell</t>
+  </si>
+  <si>
+    <t>Parsons</t>
+  </si>
+  <si>
+    <t>Alfani</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>Ranfagni</t>
+  </si>
+  <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>Otsuka</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Garofalo</t>
+  </si>
+  <si>
+    <t>Talbot</t>
+  </si>
+  <si>
+    <t>Warner</t>
+  </si>
+  <si>
+    <t>Rastrelli</t>
+  </si>
+  <si>
+    <t>Fanfani</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Elliott</t>
+  </si>
+  <si>
+    <t>Lucchesi</t>
+  </si>
+  <si>
+    <t>Reese</t>
+  </si>
+  <si>
+    <t>Ciolli</t>
+  </si>
+  <si>
+    <t>Simoncini</t>
+  </si>
+  <si>
+    <t>Schmitt</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>Frati</t>
+  </si>
+  <si>
+    <t>Buti</t>
+  </si>
+  <si>
+    <t>Fabbrucci</t>
+  </si>
+  <si>
+    <t>Carrasco</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>Del Lungo</t>
+  </si>
+  <si>
+    <t>Patterson</t>
+  </si>
+  <si>
+    <t>Rinaldi</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
     <t>332 Zigme Terrace</t>
   </si>
   <si>
+    <t>436 Olwa Boulevard</t>
+  </si>
+  <si>
+    <t>1932 Jomaw Key</t>
+  </si>
+  <si>
+    <t>776 Rovu Grove</t>
+  </si>
+  <si>
+    <t>487 Kabosi Lane</t>
+  </si>
+  <si>
+    <t>1544 Kupgos Court</t>
+  </si>
+  <si>
+    <t>1797 Cubzun Mill</t>
+  </si>
+  <si>
+    <t>1951 Hicwis Point</t>
+  </si>
+  <si>
+    <t>1865 Cotje Ridge</t>
+  </si>
+  <si>
+    <t>109 Afofa Mill</t>
+  </si>
+  <si>
+    <t>1781 Jihe Avenue</t>
+  </si>
+  <si>
+    <t>793 Dizo Street</t>
+  </si>
+  <si>
+    <t>1823 Ifgeh Avenue</t>
+  </si>
+  <si>
+    <t>1517 Cijo Junction</t>
+  </si>
+  <si>
+    <t>1292 Vusar Heights</t>
+  </si>
+  <si>
+    <t>753 Meru Plaza</t>
+  </si>
+  <si>
+    <t>680 Ruwim Plaza</t>
+  </si>
+  <si>
+    <t>1608 Nuzzij Circle</t>
+  </si>
+  <si>
+    <t>51 Wezrug Drive</t>
+  </si>
+  <si>
+    <t>1129 Jotvu Parkway</t>
+  </si>
+  <si>
+    <t>504 Vihme Place</t>
+  </si>
+  <si>
+    <t>1541 Kuhub Court</t>
+  </si>
+  <si>
+    <t>1510 Piwok Avenue</t>
+  </si>
+  <si>
+    <t>1722 Sovot Park</t>
+  </si>
+  <si>
+    <t>949 Zoziw Pass</t>
+  </si>
+  <si>
+    <t>1181 Duco Extension</t>
+  </si>
+  <si>
+    <t>1712 Luoz Drive</t>
+  </si>
+  <si>
+    <t>70 Kotij Heights</t>
+  </si>
+  <si>
+    <t>152 Suvwo Way</t>
+  </si>
+  <si>
+    <t>916 Kuvi Place</t>
+  </si>
+  <si>
+    <t>633 Geklaw Junction</t>
+  </si>
+  <si>
+    <t>1684 Abjel Path</t>
+  </si>
+  <si>
+    <t>441 Liplal Grove</t>
+  </si>
+  <si>
+    <t>503 Eviwo Heights</t>
+  </si>
+  <si>
+    <t>1700 Ipegi River</t>
+  </si>
+  <si>
+    <t>276 Waad Glen</t>
+  </si>
+  <si>
+    <t>472 Odisu Lane</t>
+  </si>
+  <si>
+    <t>354 Onecal Path</t>
+  </si>
+  <si>
+    <t>504 Vikkaj Turnpike</t>
+  </si>
+  <si>
+    <t>1872 Lizno Path</t>
+  </si>
+  <si>
+    <t>621 Nine Boulevard</t>
+  </si>
+  <si>
+    <t>636 Abzug Extension</t>
+  </si>
+  <si>
+    <t>798 Masup River</t>
+  </si>
+  <si>
+    <t>843 Toeke Pike</t>
+  </si>
+  <si>
+    <t>1467 Bawav Path</t>
+  </si>
+  <si>
+    <t>41 Bijon Road</t>
+  </si>
+  <si>
+    <t>340 Vebaz Loop</t>
+  </si>
+  <si>
+    <t>1469 Ozicu Highway</t>
+  </si>
+  <si>
+    <t>274 Luik Highway</t>
+  </si>
+  <si>
+    <t>534 Jouf Center</t>
+  </si>
+  <si>
+    <t>1782 Vuhuh Lane</t>
+  </si>
+  <si>
+    <t>1315 Dorzi Place</t>
+  </si>
+  <si>
+    <t>431 Evaod Heights</t>
+  </si>
+  <si>
+    <t>699 Ebhe River</t>
+  </si>
+  <si>
+    <t>568 Icema Street</t>
+  </si>
+  <si>
+    <t>1903 Mijum Avenue</t>
+  </si>
+  <si>
+    <t>1772 Waswo Street</t>
+  </si>
+  <si>
+    <t>868 Deshiw Mill</t>
+  </si>
+  <si>
+    <t>493 Zokuv Parkway</t>
+  </si>
+  <si>
+    <t>1925 Hidtuz Manor</t>
+  </si>
+  <si>
+    <t>1956 Ezwir Park</t>
+  </si>
+  <si>
+    <t>508 Vubrec Extension</t>
+  </si>
+  <si>
+    <t>1068 Kodap Turnpike</t>
+  </si>
+  <si>
+    <t>313 Laplar Loop</t>
+  </si>
+  <si>
+    <t>1718 Hospev Court</t>
+  </si>
+  <si>
+    <t>1265 Noku Terrace</t>
+  </si>
+  <si>
+    <t>583 Tede Trail</t>
+  </si>
+  <si>
+    <t>1959 Wabo Parkway</t>
+  </si>
+  <si>
+    <t>529 Kimfi Pike</t>
+  </si>
+  <si>
+    <t>1137 Tumav Lane</t>
+  </si>
+  <si>
     <t>Saint - Louis</t>
   </si>
   <si>
+    <t>Fatick</t>
+  </si>
+  <si>
+    <t>Tambacounda</t>
+  </si>
+  <si>
+    <t>Kaffrine</t>
+  </si>
+  <si>
+    <t>Sedhiou</t>
+  </si>
+  <si>
+    <t>Kolda</t>
+  </si>
+  <si>
+    <t>Diourbel</t>
+  </si>
+  <si>
+    <t>Dakar</t>
+  </si>
+  <si>
+    <t>Thies</t>
+  </si>
+  <si>
+    <t>Kaolack</t>
+  </si>
+  <si>
+    <t>Matam</t>
+  </si>
+  <si>
+    <t>Kedougou</t>
+  </si>
+  <si>
+    <t>Ziguinchor</t>
+  </si>
+  <si>
+    <t>Louga</t>
+  </si>
+  <si>
     <t>Francais</t>
   </si>
   <si>
+    <t>Histoire</t>
+  </si>
+  <si>
+    <t>Geographie</t>
+  </si>
+  <si>
+    <t>Chimie</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>Physique</t>
+  </si>
+  <si>
+    <t>Mathematique</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Ferrante</t>
-  </si>
-  <si>
-    <t>436 Olwa Boulevard</t>
-  </si>
-  <si>
-    <t>Fatick</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Baronti</t>
-  </si>
-  <si>
-    <t>1932 Jomaw Key</t>
-  </si>
-  <si>
-    <t>Tambacounda</t>
-  </si>
-  <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>Marc</t>
-  </si>
-  <si>
-    <t>Palmer</t>
-  </si>
-  <si>
-    <t>776 Rovu Grove</t>
-  </si>
-  <si>
-    <t>Kaffrine</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Savage</t>
-  </si>
-  <si>
-    <t>487 Kabosi Lane</t>
-  </si>
-  <si>
-    <t>Sedhiou</t>
-  </si>
-  <si>
-    <t>Histoire</t>
-  </si>
-  <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>Fabbrini</t>
-  </si>
-  <si>
-    <t>1544 Kupgos Court</t>
-  </si>
-  <si>
-    <t>Kolda</t>
-  </si>
-  <si>
-    <t>Geographie</t>
-  </si>
-  <si>
-    <t>Hilda</t>
-  </si>
-  <si>
-    <t>Meucci</t>
-  </si>
-  <si>
-    <t>1797 Cubzun Mill</t>
-  </si>
-  <si>
-    <t>Warren</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>1951 Hicwis Point</t>
-  </si>
-  <si>
-    <t>Chimie</t>
-  </si>
-  <si>
-    <t>Todd</t>
-  </si>
-  <si>
-    <t>Metcalfe</t>
-  </si>
-  <si>
-    <t>1865 Cotje Ridge</t>
-  </si>
-  <si>
-    <t>Terry</t>
-  </si>
-  <si>
-    <t>Porter</t>
-  </si>
-  <si>
-    <t>109 Afofa Mill</t>
-  </si>
-  <si>
-    <t>Diourbel</t>
-  </si>
-  <si>
-    <t>Leila</t>
-  </si>
-  <si>
-    <t>Arrighi</t>
-  </si>
-  <si>
-    <t>1781 Jihe Avenue</t>
-  </si>
-  <si>
-    <t>Dakar</t>
-  </si>
-  <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>Carpenter</t>
-  </si>
-  <si>
-    <t>793 Dizo Street</t>
-  </si>
-  <si>
-    <t>Thies</t>
-  </si>
-  <si>
-    <t>Anglais</t>
-  </si>
-  <si>
-    <t>Nathaniel</t>
-  </si>
-  <si>
-    <t>Tomlinson</t>
-  </si>
-  <si>
-    <t>1823 Ifgeh Avenue</t>
-  </si>
-  <si>
-    <t>Kaolack</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Ridolfi</t>
-  </si>
-  <si>
-    <t>1517 Cijo Junction</t>
-  </si>
-  <si>
-    <t>Matam</t>
-  </si>
-  <si>
-    <t>Pauline</t>
-  </si>
-  <si>
-    <t>Cianferoni</t>
-  </si>
-  <si>
-    <t>1292 Vusar Heights</t>
-  </si>
-  <si>
-    <t>Darrell</t>
-  </si>
-  <si>
-    <t>Rolland</t>
-  </si>
-  <si>
-    <t>753 Meru Plaza</t>
-  </si>
-  <si>
-    <t>Physique</t>
-  </si>
-  <si>
-    <t>Elva</t>
-  </si>
-  <si>
-    <t>Paoli</t>
-  </si>
-  <si>
-    <t>680 Ruwim Plaza</t>
-  </si>
-  <si>
-    <t>Landon</t>
-  </si>
-  <si>
-    <t>Braun</t>
-  </si>
-  <si>
-    <t>1608 Nuzzij Circle</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Benoît</t>
-  </si>
-  <si>
-    <t>51 Wezrug Drive</t>
-  </si>
-  <si>
-    <t>Alvin</t>
-  </si>
-  <si>
-    <t>Mazzini</t>
-  </si>
-  <si>
-    <t>1129 Jotvu Parkway</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Baldwin</t>
-  </si>
-  <si>
-    <t>504 Vihme Place</t>
-  </si>
-  <si>
-    <t>Mathematique</t>
-  </si>
-  <si>
-    <t>Caroline</t>
-  </si>
-  <si>
-    <t>Giannini</t>
-  </si>
-  <si>
-    <t>1541 Kuhub Court</t>
-  </si>
-  <si>
-    <t>Cordelia</t>
-  </si>
-  <si>
-    <t>Naylor</t>
-  </si>
-  <si>
-    <t>1510 Piwok Avenue</t>
-  </si>
-  <si>
-    <t>Jesus</t>
-  </si>
-  <si>
-    <t>Carli</t>
-  </si>
-  <si>
-    <t>1722 Sovot Park</t>
-  </si>
-  <si>
-    <t>Hester</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>949 Zoziw Pass</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Cecchi</t>
-  </si>
-  <si>
-    <t>1181 Duco Extension</t>
-  </si>
-  <si>
-    <t>Mable</t>
-  </si>
-  <si>
-    <t>Dumas</t>
-  </si>
-  <si>
-    <t>1712 Luoz Drive</t>
-  </si>
-  <si>
-    <t>Callie</t>
-  </si>
-  <si>
-    <t>van der Veen</t>
-  </si>
-  <si>
-    <t>70 Kotij Heights</t>
-  </si>
-  <si>
-    <t>Lloyd</t>
-  </si>
-  <si>
-    <t>Petrucci</t>
-  </si>
-  <si>
-    <t>152 Suvwo Way</t>
-  </si>
-  <si>
-    <t>Chester</t>
-  </si>
-  <si>
-    <t>Robson</t>
-  </si>
-  <si>
-    <t>916 Kuvi Place</t>
-  </si>
-  <si>
-    <t>Kedougou</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Giannetti</t>
-  </si>
-  <si>
-    <t>633 Geklaw Junction</t>
-  </si>
-  <si>
-    <t>Ziguinchor</t>
-  </si>
-  <si>
-    <t>Leroy</t>
-  </si>
-  <si>
-    <t>Dondoli</t>
-  </si>
-  <si>
-    <t>1684 Abjel Path</t>
-  </si>
-  <si>
-    <t>Melvin</t>
-  </si>
-  <si>
-    <t>van Beek</t>
-  </si>
-  <si>
-    <t>441 Liplal Grove</t>
-  </si>
-  <si>
-    <t>Evelyn</t>
-  </si>
-  <si>
-    <t>Uchida</t>
-  </si>
-  <si>
-    <t>503 Eviwo Heights</t>
-  </si>
-  <si>
-    <t>Mabel</t>
-  </si>
-  <si>
-    <t>Markus</t>
-  </si>
-  <si>
-    <t>1700 Ipegi River</t>
-  </si>
-  <si>
-    <t>Lela</t>
-  </si>
-  <si>
-    <t>Poirier</t>
-  </si>
-  <si>
-    <t>276 Waad Glen</t>
-  </si>
-  <si>
-    <t>Elijah</t>
-  </si>
-  <si>
-    <t>Hammond</t>
-  </si>
-  <si>
-    <t>472 Odisu Lane</t>
-  </si>
-  <si>
-    <t>Craig</t>
-  </si>
-  <si>
-    <t>Powell</t>
-  </si>
-  <si>
-    <t>354 Onecal Path</t>
-  </si>
-  <si>
-    <t>Bruce</t>
-  </si>
-  <si>
-    <t>Parsons</t>
-  </si>
-  <si>
-    <t>504 Vikkaj Turnpike</t>
-  </si>
-  <si>
-    <t>Elmer</t>
-  </si>
-  <si>
-    <t>Alfani</t>
-  </si>
-  <si>
-    <t>1872 Lizno Path</t>
-  </si>
-  <si>
-    <t>Gertrude</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>621 Nine Boulevard</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>636 Abzug Extension</t>
-  </si>
-  <si>
-    <t>Delia</t>
-  </si>
-  <si>
-    <t>Blanco</t>
-  </si>
-  <si>
-    <t>798 Masup River</t>
-  </si>
-  <si>
-    <t>Louga</t>
-  </si>
-  <si>
-    <t>Stanley</t>
-  </si>
-  <si>
-    <t>Ranfagni</t>
-  </si>
-  <si>
-    <t>843 Toeke Pike</t>
-  </si>
-  <si>
-    <t>Esther</t>
-  </si>
-  <si>
-    <t>Griffith</t>
-  </si>
-  <si>
-    <t>1467 Bawav Path</t>
-  </si>
-  <si>
-    <t>Ellen</t>
-  </si>
-  <si>
-    <t>Otsuka</t>
-  </si>
-  <si>
-    <t>41 Bijon Road</t>
-  </si>
-  <si>
-    <t>Travis</t>
-  </si>
-  <si>
-    <t>Herrera</t>
-  </si>
-  <si>
-    <t>340 Vebaz Loop</t>
-  </si>
-  <si>
-    <t>Isaac</t>
-  </si>
-  <si>
-    <t>Garofalo</t>
-  </si>
-  <si>
-    <t>1469 Ozicu Highway</t>
-  </si>
-  <si>
-    <t>Lou</t>
-  </si>
-  <si>
-    <t>Talbot</t>
-  </si>
-  <si>
-    <t>274 Luik Highway</t>
-  </si>
-  <si>
-    <t>Margaret</t>
-  </si>
-  <si>
-    <t>Warner</t>
-  </si>
-  <si>
-    <t>534 Jouf Center</t>
-  </si>
-  <si>
-    <t>Nina</t>
-  </si>
-  <si>
-    <t>Rastrelli</t>
-  </si>
-  <si>
-    <t>1782 Vuhuh Lane</t>
-  </si>
-  <si>
-    <t>Owen</t>
-  </si>
-  <si>
-    <t>Fanfani</t>
-  </si>
-  <si>
-    <t>1315 Dorzi Place</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t>431 Evaod Heights</t>
-  </si>
-  <si>
-    <t>Sally</t>
-  </si>
-  <si>
-    <t>Elliott</t>
-  </si>
-  <si>
-    <t>699 Ebhe River</t>
-  </si>
-  <si>
-    <t>Cecelia</t>
-  </si>
-  <si>
-    <t>Lucchesi</t>
-  </si>
-  <si>
-    <t>568 Icema Street</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Reese</t>
-  </si>
-  <si>
-    <t>1903 Mijum Avenue</t>
-  </si>
-  <si>
-    <t>Cecilia</t>
-  </si>
-  <si>
-    <t>Ciolli</t>
-  </si>
-  <si>
-    <t>1772 Waswo Street</t>
-  </si>
-  <si>
-    <t>Glen</t>
-  </si>
-  <si>
-    <t>Simoncini</t>
-  </si>
-  <si>
-    <t>868 Deshiw Mill</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Schmitt</t>
-  </si>
-  <si>
-    <t>493 Zokuv Parkway</t>
-  </si>
-  <si>
-    <t>Birdie</t>
-  </si>
-  <si>
-    <t>Harrison</t>
-  </si>
-  <si>
-    <t>1925 Hidtuz Manor</t>
-  </si>
-  <si>
-    <t>Seth</t>
-  </si>
-  <si>
-    <t>Frati</t>
-  </si>
-  <si>
-    <t>1956 Ezwir Park</t>
-  </si>
-  <si>
-    <t>Dustin</t>
-  </si>
-  <si>
-    <t>Buti</t>
-  </si>
-  <si>
-    <t>508 Vubrec Extension</t>
-  </si>
-  <si>
-    <t>Clayton</t>
-  </si>
-  <si>
-    <t>Fabbrucci</t>
-  </si>
-  <si>
-    <t>1068 Kodap Turnpike</t>
-  </si>
-  <si>
-    <t>Agnes</t>
-  </si>
-  <si>
-    <t>Carrasco</t>
-  </si>
-  <si>
-    <t>313 Laplar Loop</t>
-  </si>
-  <si>
-    <t>Bessie</t>
-  </si>
-  <si>
-    <t>Morton</t>
-  </si>
-  <si>
-    <t>1718 Hospev Court</t>
-  </si>
-  <si>
-    <t>Lola</t>
-  </si>
-  <si>
-    <t>Mustafa</t>
-  </si>
-  <si>
-    <t>1265 Noku Terrace</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Del Lungo</t>
-  </si>
-  <si>
-    <t>583 Tede Trail</t>
-  </si>
-  <si>
-    <t>Myrtie</t>
-  </si>
-  <si>
-    <t>Patterson</t>
-  </si>
-  <si>
-    <t>1959 Wabo Parkway</t>
-  </si>
-  <si>
-    <t>Milton</t>
-  </si>
-  <si>
-    <t>Rinaldi</t>
-  </si>
-  <si>
-    <t>529 Kimfi Pike</t>
-  </si>
-  <si>
-    <t>Bess</t>
-  </si>
-  <si>
-    <t>Schmidt</t>
-  </si>
-  <si>
-    <t>1137 Tumav Lane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -736,7 +768,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -744,12 +776,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,743 +1094,743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="E2">
-        <v>19.8</v>
+        <v>1.2</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="E3">
-        <v>4.3</v>
+        <v>19.8</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="E4">
-        <v>19.8</v>
+        <v>4.3</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="E5">
-        <v>16.6</v>
+        <v>19.8</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="E6">
-        <v>2.9</v>
+        <v>16.6</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="E7">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="E8">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="E9">
-        <v>5.1</v>
+        <v>6.7</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="E10">
-        <v>8.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="E11">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="E12">
-        <v>17.6</v>
+        <v>7.5</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="E13">
-        <v>19.6</v>
+        <v>17.6</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="E14">
-        <v>5.3</v>
+        <v>19.6</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
+        <v>5.3</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="E16">
-        <v>11.1</v>
+        <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>11.1</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="E19">
-        <v>5.6</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>235</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="E21">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="H21" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="H22" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="H23" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="E25">
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="E26">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F26" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="E27">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="E28">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="H28" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>105</v>
@@ -1789,1085 +1839,1111 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="E30">
-        <v>18.3</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="E31">
-        <v>8.9</v>
+        <v>18.3</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="E32">
-        <v>11</v>
+        <v>8.9</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="E33">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="H33" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="E34">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="H34" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="E35">
         <v>0.7</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="H35" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="E36">
-        <v>10.6</v>
+        <v>0.7</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="H36" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="E37">
-        <v>8.5</v>
+        <v>10.6</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="H37" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="E38">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="F38" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="E39">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="E40">
-        <v>11.3</v>
+        <v>4.6</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="E41">
-        <v>4.1</v>
+        <v>11.3</v>
       </c>
       <c r="F41" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="G41" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="E42">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="H42" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="E43">
-        <v>17.9</v>
+        <v>6.4</v>
       </c>
       <c r="F43" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="G43" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="H43" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>17.9</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="G44" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="H45" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E46">
-        <v>12.8</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="H46" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="E47">
-        <v>9.6</v>
+        <v>12.8</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="E48">
-        <v>16.7</v>
+        <v>9.6</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="G48" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="E49">
-        <v>3.1</v>
+        <v>16.7</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="H49" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E50">
-        <v>16.8</v>
+        <v>3.1</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="H50" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="E51">
-        <v>13</v>
+        <v>16.8</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="G51" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="H51" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="G52" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="E53">
-        <v>15.1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="G53" t="s">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E54">
-        <v>19.5</v>
+        <v>15.1</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="H54" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="E55">
-        <v>10.4</v>
+        <v>19.5</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="G55" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="H55" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C56">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E56">
-        <v>17.8</v>
+        <v>10.4</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="C57">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E57">
-        <v>6.1</v>
+        <v>17.8</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="G57" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="H57" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E58">
-        <v>13.3</v>
+        <v>6.1</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E59">
-        <v>17.6</v>
+        <v>13.3</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="G59" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="C60">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E60">
-        <v>10.5</v>
+        <v>17.6</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="H60" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="C61">
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E61">
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="H61" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>206</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
         <v>208</v>
       </c>
       <c r="E62">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F62" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="G62" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
         <v>209</v>
       </c>
-      <c r="B63" t="s">
-        <v>210</v>
-      </c>
-      <c r="C63">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>211</v>
-      </c>
       <c r="E63">
-        <v>16.2</v>
+        <v>1.6</v>
       </c>
       <c r="F63" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="G63" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E64">
-        <v>19.5</v>
+        <v>16.2</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="H64" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E65">
-        <v>2.4</v>
+        <v>19.5</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="H65" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E66">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="G66" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="H66" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E67">
-        <v>12.4</v>
+        <v>7.1</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="H67" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="C68">
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E68">
-        <v>9.199999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="F68" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="H68" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F69" t="s">
         <v>229</v>
       </c>
-      <c r="E69">
-        <v>19.9</v>
-      </c>
-      <c r="F69" t="s">
-        <v>50</v>
-      </c>
       <c r="G69" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="C70">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>216</v>
+      </c>
+      <c r="E70">
+        <v>19.9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>226</v>
+      </c>
+      <c r="G70" t="s">
+        <v>234</v>
+      </c>
+      <c r="H70" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71">
         <v>16</v>
       </c>
-      <c r="D70" t="s">
-        <v>232</v>
-      </c>
-      <c r="E70">
+      <c r="D71" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71">
         <v>8.1</v>
       </c>
-      <c r="F70" t="s">
-        <v>59</v>
-      </c>
-      <c r="G70" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" t="s">
-        <v>5</v>
+      <c r="F71" t="s">
+        <v>228</v>
+      </c>
+      <c r="G71" t="s">
+        <v>235</v>
+      </c>
+      <c r="H71" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
